--- a/Parallel_Prog/laba3_POSIX/tests.xlsx
+++ b/Parallel_Prog/laba3_POSIX/tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3_POSIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3_POSIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0662590F-5913-453E-9743-8DA7B416AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50D689-4756-4791-9B57-5AA011D72D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,19 +158,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -344,6 +348,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.200132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34025100000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.63913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6181000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.6784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.368799999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.71</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -425,6 +459,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33382600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9900199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3047199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.625699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.566</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -506,6 +570,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23477000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.470584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95835400000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1851799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.93703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.970799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.35599999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1285,10 +1379,10 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438979</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1579,371 +1673,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>0.200132</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>0.18742</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>0.23477000000000001</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
         <v>1.1730799999999999</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
         <v>1.25264</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>0.34025100000000003</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>0.33382600000000001</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>0.470584</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>1.3830499999999999</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <v>1.40967</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="6"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9">
         <f>2^18</f>
         <v>262144</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.78874</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>0.74895</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>0.95835400000000004</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>1.21505</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
         <v>1.2796000000000001</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="6"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="9">
         <f>2^19</f>
         <v>524288</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1.63913</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>1.48017</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>1.97888</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>1.2072700000000001</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
         <v>1.33693</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="6"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="9">
         <f>2^20</f>
         <v>1048576</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3.1739999999999999</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>2.9900199999999999</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>4.1851799999999999</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>1.3185800000000001</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
         <v>1.3997200000000001</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="9">
         <f>2^21</f>
         <v>2097152</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>6.6181000000000001</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>6.3047199999999997</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>8.93703</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>1.35039</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <v>1.4175199999999999</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="9">
         <f>2^22</f>
         <v>4194304</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>14.0077</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>13.1204</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>17.661999999999999</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>1.26088</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <v>1.34615</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="9">
         <f>2^23</f>
         <v>8388608</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>29.6784</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>28.625699999999998</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>37.875</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>1.2761800000000001</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <v>1.32311</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="9">
         <f>2^24</f>
         <v>16777216</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>66.368799999999993</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>63.244</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>79.970799999999997</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>1.20495</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <v>1.26448</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="9">
         <f>2^25</f>
         <v>33554432</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>136.71</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>131.566</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>170.35599999999999</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
         <v>1.2461100000000001</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
         <v>1.2948299999999999</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="6"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -1952,8 +2098,13 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1970,132 +2121,207 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>0.200132</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.18742</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.23477000000000001</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2">
+        <v>0.34025100000000003</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.33382600000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.470584</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2">
+        <v>0.78874</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.74895</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.95835400000000004</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2">
+        <v>1.63913</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.48017</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.97888</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.9900199999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.1851799999999999</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2">
+        <v>6.6181000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.3047199999999997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.93703</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2">
+        <v>14.0077</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13.1204</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17.661999999999999</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2">
+        <v>29.6784</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28.625699999999998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>37.875</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2">
+        <v>66.368799999999993</v>
+      </c>
+      <c r="C24" s="2">
+        <v>63.244</v>
+      </c>
+      <c r="D24" s="2">
+        <v>79.970799999999997</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2">
+        <v>136.71</v>
+      </c>
+      <c r="C25" s="2">
+        <v>131.566</v>
+      </c>
+      <c r="D25" s="2">
+        <v>170.35599999999999</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2103,62 +2329,11 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="I1:J2"/>
@@ -2175,11 +2350,62 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parallel_Prog/laba3_POSIX/tests.xlsx
+++ b/Parallel_Prog/laba3_POSIX/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3_POSIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50D689-4756-4791-9B57-5AA011D72D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4BA4E-DD84-4826-B0F3-0ED7DF87BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,13 +158,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -173,10 +173,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1673,423 +1670,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6">
+      <c r="B3" s="6"/>
+      <c r="C3" s="8">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>0.200132</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
         <v>0.18742</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>0.23477000000000001</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>1.1730799999999999</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
         <v>1.25264</v>
       </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="N3" s="8"/>
+      <c r="Q3" s="11">
+        <f>SUM(K3:L12)/10</f>
+        <v>1.2635539999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
         <v>0.34025100000000003</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>0.33382600000000001</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>0.470584</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>1.3830499999999999</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
         <v>1.40967</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="9">
         <f>2^18</f>
         <v>262144</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>0.78874</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
         <v>0.74895</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <v>0.95835400000000004</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
         <v>1.21505</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8">
         <v>1.2796000000000001</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="9">
         <f>2^19</f>
         <v>524288</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>1.63913</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>1.48017</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
         <v>1.97888</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
         <v>1.2072700000000001</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>1.33693</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="N6" s="8"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="9">
         <f>2^20</f>
         <v>1048576</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>3.1739999999999999</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>2.9900199999999999</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>4.1851799999999999</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
         <v>1.3185800000000001</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>1.3997200000000001</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="N7" s="8"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>2^21</f>
         <v>2097152</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>6.6181000000000001</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <v>6.3047199999999997</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
         <v>8.93703</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
         <v>1.35039</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>1.4175199999999999</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="N8" s="8"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="9">
         <f>2^22</f>
         <v>4194304</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>14.0077</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <v>13.1204</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <v>17.661999999999999</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
         <v>1.26088</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
         <v>1.34615</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="N9" s="8"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="9">
         <f>2^23</f>
         <v>8388608</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>29.6784</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <v>28.625699999999998</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>37.875</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <v>1.2761800000000001</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
         <v>1.32311</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="N10" s="8"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="9">
         <f>2^24</f>
         <v>16777216</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>66.368799999999993</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>63.244</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <v>79.970799999999997</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
         <v>1.20495</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
         <v>1.26448</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="N11" s="8"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="9">
         <f>2^25</f>
         <v>33554432</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>136.71</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <v>131.566</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
         <v>170.35599999999999</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
         <v>1.2461100000000001</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <v>1.2948299999999999</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2098,13 +2065,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2121,13 +2085,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
@@ -2145,13 +2106,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>2^17</f>
         <v>131072</v>
@@ -2169,13 +2126,8 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>2^18</f>
         <v>262144</v>
@@ -2194,7 +2146,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>2^19</f>
         <v>524288</v>
@@ -2213,7 +2165,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>2^20</f>
         <v>1048576</v>
@@ -2232,7 +2184,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>2^21</f>
         <v>2097152</v>
@@ -2251,7 +2203,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>2^22</f>
         <v>4194304</v>
@@ -2270,7 +2222,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>2^23</f>
         <v>8388608</v>
@@ -2289,7 +2241,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>2^24</f>
         <v>16777216</v>
@@ -2308,7 +2260,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>2^25</f>
         <v>33554432</v>
@@ -2329,11 +2281,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="I1:J2"/>
@@ -2350,62 +2353,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G1:H2"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parallel_Prog/laba3_POSIX/tests.xlsx
+++ b/Parallel_Prog/laba3_POSIX/tests.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3_POSIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3_POSIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4BA4E-DD84-4826-B0F3-0ED7DF87BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23961A1E-28D5-4843-B003-A8B4DCC0DFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="2" r:id="rId2"/>
+    <sheet name="6" sheetId="3" r:id="rId3"/>
+    <sheet name="8" sheetId="4" r:id="rId4"/>
+    <sheet name="res" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>Номер теста</t>
   </si>
@@ -63,6 +67,21 @@
     <t>Срав.линейной 
 и POSIX</t>
   </si>
+  <si>
+    <t>Лин,с</t>
+  </si>
+  <si>
+    <t>2 th</t>
+  </si>
+  <si>
+    <t>4 th</t>
+  </si>
+  <si>
+    <t>6 th</t>
+  </si>
+  <si>
+    <t>8 th</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -137,11 +156,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +245,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -173,7 +272,36 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -279,7 +407,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
+              <c:f>'2'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -302,7 +430,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -341,7 +469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:f>'2'!$B$16:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -390,7 +518,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>'2'!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -413,7 +541,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -452,7 +580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$25</c:f>
+              <c:f>'2'!$C$16:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -501,7 +629,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>'2'!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -524,7 +652,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -563,7 +691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$25</c:f>
+              <c:f>'2'!$D$16:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -810,7 +938,2394 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20966599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72806400000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.62958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5313300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7158100000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.273099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.996700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.982900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148.827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3AF6-4D90-A119-B08836AC4513}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20700399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33290399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76846099999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3166799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.2286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.7608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.9968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.74600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3AF6-4D90-A119-B08836AC4513}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27032699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44489099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97204299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0101900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1894499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9110999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.240200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.2562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.254900000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.19399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3AF6-4D90-A119-B08836AC4513}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="651601999"/>
+        <c:axId val="651602479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="651601999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651602479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="651602479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651601999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22074199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.412908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67337999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7711300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4843099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.00983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.7439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.3093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.461399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.31299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D422-4480-9D50-1E780FEE0719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21617500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40356700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66891900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6390499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1015700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4618399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.8377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.659700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.384399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135.535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D422-4480-9D50-1E780FEE0719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26453199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51026499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81751700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0691299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3024699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0617900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.174800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.336500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.703299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.64099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D422-4480-9D50-1E780FEE0719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1888738783"/>
+        <c:axId val="1888722463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1888738783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888722463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888722463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888738783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18904299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35470499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63279600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2338499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3755099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5917500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.788899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.57300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB7A-45D2-96BC-DD52100FA40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.218224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38517400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63080999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3652899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3797199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.8081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.427800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.162799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB7A-45D2-96BC-DD52100FA40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22786799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76324999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8831100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8762699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2584499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.1965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.829599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.044600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189.30500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB7A-45D2-96BC-DD52100FA40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1888695583"/>
+        <c:axId val="1888695103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1888695583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888695103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888695103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888695583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.200132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34025100000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.63913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6181000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.6784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.368799999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20966599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72806400000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.62958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5313300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7158100000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.273099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.996700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.982900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148.827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22074199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.412908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67337999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7711300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4843099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.00983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.7439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.3093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.461399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.31299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18904299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35470499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63279600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2338499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3755099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5917500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.788899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.57300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1888715743"/>
+        <c:axId val="1888714303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1888715743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888714303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888714303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888715743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1366,6 +3881,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1387,6 +5966,170 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E528A6-13C9-32D0-C6A2-EEB06EC5D3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5C3041-4AE4-0D8F-20EA-76765FC41694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513522</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA8C91E-7E50-43EA-F190-F6ECFD4C9BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391991</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106241</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB3A40B-944C-37E5-F1CD-2CF2D659BFED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FA6737-BA15-9599-DB13-1B696BC524D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,383 +6415,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8">
+      <c r="B3" s="10"/>
+      <c r="C3" s="12">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>0.200132</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>0.18742</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>0.23477000000000001</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
         <v>1.1730799999999999</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>1.25264</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="Q3" s="11">
+      <c r="N3" s="12"/>
+      <c r="Q3" s="7">
         <f>SUM(K3:L12)/10</f>
         <v>1.2635539999999998</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8">
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>0.34025100000000003</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>0.33382600000000001</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>0.470584</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
         <v>1.3830499999999999</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>1.40967</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="13">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8">
+      <c r="D5" s="14"/>
+      <c r="E5" s="12">
         <v>0.78874</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>0.74895</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
         <v>0.95835400000000004</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
         <v>1.21505</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>1.2796000000000001</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8">
+      <c r="D6" s="14"/>
+      <c r="E6" s="12">
         <v>1.63913</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>1.48017</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <v>1.97888</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
         <v>1.2072700000000001</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>1.33693</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="12"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9">
+      <c r="B7" s="10"/>
+      <c r="C7" s="13">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8">
+      <c r="D7" s="14"/>
+      <c r="E7" s="12">
         <v>3.1739999999999999</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>2.9900199999999999</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12">
         <v>4.1851799999999999</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
         <v>1.3185800000000001</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>1.3997200000000001</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="12"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8">
+      <c r="D8" s="14"/>
+      <c r="E8" s="12">
         <v>6.6181000000000001</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <v>6.3047199999999997</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12">
         <v>8.93703</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
         <v>1.35039</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>1.4175199999999999</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="12"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8">
+      <c r="D9" s="14"/>
+      <c r="E9" s="12">
         <v>14.0077</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>13.1204</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <v>17.661999999999999</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
         <v>1.26088</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>1.34615</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="12"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8">
+      <c r="D10" s="14"/>
+      <c r="E10" s="12">
         <v>29.6784</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>28.625699999999998</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
         <v>37.875</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12">
         <v>1.2761800000000001</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>1.32311</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="12"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8">
+      <c r="D11" s="14"/>
+      <c r="E11" s="12">
         <v>66.368799999999993</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>63.244</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
         <v>79.970799999999997</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
         <v>1.20495</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>1.26448</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="12"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8">
+      <c r="D12" s="14"/>
+      <c r="E12" s="12">
         <v>136.71</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>131.566</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>170.35599999999999</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
         <v>1.2461100000000001</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>1.2948299999999999</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="12"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
@@ -2362,4 +7105,1947 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921B4E71-FA55-4206-A07A-3022D3565ED7}">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2">
+        <v>0.20966599999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.20700399999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.27032699999999998</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1.28932</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13">
+        <v>1.3059000000000001</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2">
+        <v>0.34264</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.33290399999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.44489099999999998</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.2984199999999999</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13">
+        <v>1.3364</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2">
+        <v>0.72806400000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.76846099999999995</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.97204299999999999</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1.33511</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13">
+        <v>1.26492</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2">
+        <v>1.62958</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.53373</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.0101900000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.23356</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13">
+        <v>1.3106500000000001</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2">
+        <v>3.5313300000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.0752999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4.1894499999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1.1863699999999999</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13">
+        <v>1.36229</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2">
+        <v>6.7158100000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.3166799999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8.9110999999999994</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1.3268800000000001</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13">
+        <v>1.41073</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="2">
+        <v>15.273099999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.2286</v>
+      </c>
+      <c r="G9" s="6">
+        <v>18.240200000000002</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1.1942699999999999</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13">
+        <v>1.2819400000000001</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2">
+        <v>28.996700000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28.7608</v>
+      </c>
+      <c r="G10" s="6">
+        <v>38.2562</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1.3193299999999999</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13">
+        <v>1.3301499999999999</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="2">
+        <v>61.982900000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>55.9968</v>
+      </c>
+      <c r="G11" s="6">
+        <v>79.254900000000006</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1.2786599999999999</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13">
+        <v>1.4153500000000001</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="2">
+        <v>148.827</v>
+      </c>
+      <c r="F12" s="2">
+        <v>143.74600000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>177.19399999999999</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1.1906000000000001</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13">
+        <v>1.2326900000000001</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.20966599999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.20700399999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.27032699999999998</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.34264</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.33290399999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.44489099999999998</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.72806400000000004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.76846099999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.97204299999999999</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.62958</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.53373</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.0101900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.5313300000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.0752999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.1894499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6.7158100000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.3166799999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8.9110999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B21" s="2">
+        <v>15.273099999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14.2286</v>
+      </c>
+      <c r="D21" s="6">
+        <v>18.240200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B22" s="2">
+        <v>28.996700000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.7608</v>
+      </c>
+      <c r="D22" s="6">
+        <v>38.2562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B23" s="2">
+        <v>61.982900000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>55.9968</v>
+      </c>
+      <c r="D23" s="6">
+        <v>79.254900000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B24" s="2">
+        <v>148.827</v>
+      </c>
+      <c r="C24" s="2">
+        <v>143.74600000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>177.19399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B0CB7-578D-4707-B33E-A80C3F600599}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2">
+        <v>0.22074199999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.21617500000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.26453199999999999</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.19838</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
+        <v>1.2237</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2">
+        <v>0.412908</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.40356700000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.51026499999999997</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1.2357800000000001</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
+        <v>1.2639</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.67337999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.66891900000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.81751700000000005</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.2140500000000001</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
+        <v>1.2221500000000001</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.7711300000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.6390499999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.0691299999999999</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.16825</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>1.2624</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>3.4843099999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.1015700000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.3024699999999996</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.23481</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
+        <v>1.3871899999999999</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>7.00983</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.4618399999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.0617900000000002</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.2927299999999999</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>1.40235</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>14.7439</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13.8377</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18.174800000000001</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.23271</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
+        <v>1.3134300000000001</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>29.3093</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28.659700000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>38.336500000000001</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>1.33765</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>62.461399999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>61.384399999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>79.703299999999999</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1.2760400000000001</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>1.29843</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>141.31299999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>135.535</v>
+      </c>
+      <c r="G12" s="2">
+        <v>164.64099999999999</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1.1650799999999999</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>1.21475</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.22074199999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.21617500000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.26453199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.412908</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.40356700000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.51026499999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.67337999999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.66891900000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.81751700000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.7711300000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.6390499999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.0691299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.4843099999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.1015700000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.3024699999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.00983</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.4618399999999996</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.0617900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.7439</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13.8377</v>
+      </c>
+      <c r="D22" s="2">
+        <v>18.174800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.3093</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28.659700000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>38.336500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B24" s="2">
+        <v>62.461399999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>61.384399999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>79.703299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>141.31299999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>135.535</v>
+      </c>
+      <c r="D25" s="2">
+        <v>164.64099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EC1D97-45B2-435F-963B-F079C09DCF46}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2">
+        <v>0.18904299999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.218224</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22786799999999999</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.2053799999999999</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
+        <v>1.04419</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2">
+        <v>0.35470499999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.38517400000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.44621</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1.2579800000000001</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
+        <v>1.15846</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.63279600000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.63080999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.76324999999999998</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.2061500000000001</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
+        <v>1.2099500000000001</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.2338499999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.3652899999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.8831100000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.5262</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>1.37927</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>2.3755099999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.5987</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.8762699999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.6317600000000001</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
+        <v>1.4916199999999999</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>5.5917500000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.3797199999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8.2584499999999998</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.4769000000000001</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>1.2944899999999999</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>10.5168</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.8081</v>
+      </c>
+      <c r="G9" s="2">
+        <v>17.1965</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.6351500000000001</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
+        <v>1.34263</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>24.34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28.427800000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>35.829599999999999</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.47204</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>1.26037</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>52.788899999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>59.162799999999997</v>
+      </c>
+      <c r="G11" s="2">
+        <v>72.044600000000003</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1.36477</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>1.21773</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>146.57300000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>161.595</v>
+      </c>
+      <c r="G12" s="2">
+        <v>189.30500000000001</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1.2915399999999999</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>1.1714800000000001</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.18904299999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.218224</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.22786799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.35470499999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.38517400000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.44621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.63279600000000003</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.63080999999999998</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.76324999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.2338499999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.3652899999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.8831100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.3755099999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.5987</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.8762699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.5917500000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.3797199999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.2584499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10.5168</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12.8081</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17.1965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B23" s="2">
+        <v>24.34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28.427800000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35.829599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B24" s="2">
+        <v>52.788899999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>59.162799999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>72.044600000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>146.57300000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>161.595</v>
+      </c>
+      <c r="D25" s="2">
+        <v>189.30500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063F5B5-CE0E-4740-ACB8-118ADF24D602}">
+  <dimension ref="A4:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.200132</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.20966599999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22074199999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18904299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.34025100000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.34264</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.412908</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.35470499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.78874</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72806400000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.67337999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.63279600000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.63913</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.62958</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.7711300000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.2338499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5313300000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.4843099999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.3755099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.6181000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.7158100000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.00983</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.5917500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14.0077</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15.273099999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14.7439</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.5168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B12" s="2">
+        <v>29.6784</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28.996700000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>29.3093</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B13" s="2">
+        <v>66.368799999999993</v>
+      </c>
+      <c r="C13" s="2">
+        <v>61.982900000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>62.461399999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>52.788899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B14" s="2">
+        <v>136.71</v>
+      </c>
+      <c r="C14" s="2">
+        <v>148.827</v>
+      </c>
+      <c r="D14" s="2">
+        <v>141.31299999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>146.57300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>